--- a/qgitc/data/templates/builtin.xlsx
+++ b/qgitc/data/templates/builtin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12667"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="冲突记录" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>本地分支</t>
+  </si>
+  <si>
+    <t>远程分支</t>
+  </si>
+  <si>
+    <t>合并者</t>
+  </si>
   <si>
     <t>冲突文件路径</t>
   </si>
@@ -41,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -81,6 +90,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -89,116 +150,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,11 +460,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,58 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,152 +544,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +698,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.375" style="1" customWidth="true"/>
     <col min="2" max="2" width="29.0083333333333" style="2" customWidth="true"/>
@@ -1041,31 +1056,52 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="5"/>
+    <row r="12" spans="3:3">
+      <c r="C12" s="7"/>
     </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="5"/>
+    <row r="18" spans="4:4">
+      <c r="D18" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
